--- a/Normalization Explanation/Normalization 2NF.xlsx
+++ b/Normalization Explanation/Normalization 2NF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sammi\Documents\GitHub\CSCI1320-Public-Repo\CSCI1320-PublicRepo\Normalization Explanation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE0E3618-3D1B-41FB-BC90-5EBAA0D17ACF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{488D0E3F-1398-4C56-924D-EB2E383259E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13032" yWindow="-23832" windowWidth="19524" windowHeight="12840" xr2:uid="{8192203F-2B5F-4924-8EF8-C5BD7F4EFBEE}"/>
+    <workbookView xWindow="29070" yWindow="1035" windowWidth="24870" windowHeight="13155" activeTab="1" xr2:uid="{8192203F-2B5F-4924-8EF8-C5BD7F4EFBEE}"/>
   </bookViews>
   <sheets>
     <sheet name="2NF" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
   <si>
     <t xml:space="preserve">2NF - Second Normal Form </t>
   </si>
@@ -45,9 +45,6 @@
     <t xml:space="preserve">Each non-key attribute fully functionally dependant on the primary key </t>
   </si>
   <si>
-    <t>* 2NF is only a problem if you have a compound key (Tables whose primary key is only one attribute is automatically in 2NF</t>
-  </si>
-  <si>
     <t>INVENTORY</t>
   </si>
   <si>
@@ -82,6 +79,9 @@
   </si>
   <si>
     <t>WAREHOUSE</t>
+  </si>
+  <si>
+    <t>* 2NF is only a problem if you have a compound key (Table whose primary key is only one attribute is automatically in 2NF)</t>
   </si>
 </sst>
 </file>
@@ -120,12 +120,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -155,7 +161,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -167,6 +173,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -483,8 +501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF5AAF2-91D9-46DB-9E12-6BCF48B73848}">
   <dimension ref="B2:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,35 +528,35 @@
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C11" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C12" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C13" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -548,15 +566,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A14FD192-067C-4BEA-822F-631F14CC7D96}">
-  <dimension ref="B5:G24"/>
+  <dimension ref="B5:H35"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
     <col min="5" max="5" width="19.85546875" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.42578125" customWidth="1"/>
@@ -564,29 +583,29 @@
   <sheetData>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="B6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
@@ -600,7 +619,7 @@
         <v>5</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
@@ -614,7 +633,7 @@
         <v>3</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
@@ -628,7 +647,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
@@ -642,7 +661,7 @@
         <v>2</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
@@ -656,48 +675,49 @@
         <v>4</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="F18" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="4" t="s">
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="F18" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="5" t="s">
+      <c r="C19" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="D19" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="F19" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="12"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <v>1</v>
       </c>
@@ -711,10 +731,10 @@
         <v>1</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <v>1</v>
       </c>
@@ -724,14 +744,14 @@
       <c r="D21" s="3">
         <v>3</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="4">
         <v>2</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <v>2</v>
       </c>
@@ -741,14 +761,10 @@
       <c r="D22" s="3">
         <v>2</v>
       </c>
-      <c r="F22" s="3">
-        <v>1</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F22" s="8"/>
+      <c r="G22" s="9"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <v>3</v>
       </c>
@@ -758,14 +774,10 @@
       <c r="D23" s="3">
         <v>2</v>
       </c>
-      <c r="F23" s="3">
-        <v>1</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F23" s="8"/>
+      <c r="G23" s="9"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <v>4</v>
       </c>
@@ -775,18 +787,75 @@
       <c r="D24" s="3">
         <v>4</v>
       </c>
-      <c r="F24" s="3">
-        <v>2</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="F24" s="8"/>
+      <c r="G24" s="9"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C28" s="9"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="9"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C29" s="9"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="9"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C30" s="9"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C31" s="9"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C32" s="9"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C33" s="9"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C34" s="9"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="B18:D18"/>
+    <mergeCell ref="D28:E28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
